--- a/data/trans_dic/P12_3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,91</t>
+          <t>3,03; 7,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,08</t>
+          <t>3,49; 8,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,94</t>
+          <t>3,16; 7,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,2</t>
+          <t>6,37; 11,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,97</t>
+          <t>3,86; 9,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,88</t>
+          <t>4,44; 11,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,55</t>
+          <t>2,25; 6,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 10,87</t>
+          <t>6,56; 10,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,98</t>
+          <t>3,67; 7,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,13</t>
+          <t>4,47; 8,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,39</t>
+          <t>3,09; 6,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,4</t>
+          <t>7,01; 10,61</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,56</t>
+          <t>1,91; 6,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,32</t>
+          <t>3,85; 9,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,3</t>
+          <t>4,26; 9,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 12,69</t>
+          <t>6,7; 12,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,52</t>
+          <t>5,42; 11,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 13,85</t>
+          <t>6,66; 14,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,17</t>
+          <t>6,12; 12,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 12,02</t>
+          <t>7,01; 12,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,84</t>
+          <t>4,29; 7,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 10,11</t>
+          <t>6,02; 10,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,93</t>
+          <t>5,83; 9,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,23</t>
+          <t>7,53; 11,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,07</t>
+          <t>3,33; 7,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,53</t>
+          <t>6,98; 11,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,0</t>
+          <t>5,86; 10,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 13,41</t>
+          <t>2,83; 13,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 17,93</t>
+          <t>7,63; 17,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 15,81</t>
+          <t>7,71; 15,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 20,04</t>
+          <t>8,54; 20,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 19,82</t>
+          <t>11,35; 19,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,59</t>
+          <t>4,96; 8,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,77</t>
+          <t>7,77; 11,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 12,05</t>
+          <t>7,25; 11,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 14,04</t>
+          <t>3,77; 14,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,58</t>
+          <t>4,89; 7,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 12,0</t>
+          <t>8,16; 11,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 9,93</t>
+          <t>6,62; 9,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,88</t>
+          <t>10,0; 15,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 9,99</t>
+          <t>6,04; 10,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,9</t>
+          <t>10,56; 15,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,13</t>
+          <t>7,86; 12,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 13,67</t>
+          <t>5,43; 13,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 7,87</t>
+          <t>5,64; 7,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 12,6</t>
+          <t>9,71; 12,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,22</t>
+          <t>7,75; 10,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 13,43</t>
+          <t>7,82; 13,57</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,75</t>
+          <t>3,08; 7,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,96</t>
+          <t>6,08; 10,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,17</t>
+          <t>7,56; 12,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 13,62</t>
+          <t>8,42; 13,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,56</t>
+          <t>6,84; 11,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,37; 21,25</t>
+          <t>15,47; 21,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,53; 21,45</t>
+          <t>15,83; 21,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 19,58</t>
+          <t>12,23; 19,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,49</t>
+          <t>5,74; 9,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,22</t>
+          <t>12,25; 16,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,74; 16,7</t>
+          <t>12,55; 16,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,75; 16,45</t>
+          <t>11,75; 16,32</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,24</t>
+          <t>1,86; 6,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,65</t>
+          <t>2,99; 8,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,82</t>
+          <t>1,04; 4,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 10,98</t>
+          <t>2,93; 11,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,46</t>
+          <t>7,37; 10,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,45; 15,47</t>
+          <t>11,46; 15,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,75</t>
+          <t>9,8; 14,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,22; 18,81</t>
+          <t>14,33; 18,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,29</t>
+          <t>6,57; 9,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,13; 13,82</t>
+          <t>10,12; 13,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 11,86</t>
+          <t>8,31; 11,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,95; 15,89</t>
+          <t>11,93; 16,08</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,38; 5,96</t>
+          <t>4,36; 5,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 9,1</t>
+          <t>7,12; 9,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,37</t>
+          <t>6,49; 8,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 11,22</t>
+          <t>7,6; 11,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,51</t>
+          <t>7,62; 9,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,07; 14,45</t>
+          <t>12,12; 14,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,66; 12,97</t>
+          <t>10,66; 12,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,54; 14,28</t>
+          <t>10,61; 14,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,49</t>
+          <t>6,24; 7,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,94; 11,51</t>
+          <t>9,95; 11,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 10,39</t>
+          <t>8,97; 10,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,88; 12,48</t>
+          <t>9,88; 12,51</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21965</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23027</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21594</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>43309</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18415</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22154</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13810</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38474</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>40380</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45181</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>35404</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>81783</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14365; 33553</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15269; 36116</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13551; 33860</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32167; 59201</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11823; 28300</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13924; 35436</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7813; 22686</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29372; 48787</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28615; 55861</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33568; 63414</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23975; 47950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>66760; 101112</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13534</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25938</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24125</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>42576</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30119</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33451</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33356</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34931</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43653</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>59390</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>57481</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>77508</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7001; 23959</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16104; 39064</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16018; 35980</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30318; 58100</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20143; 41403</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22521; 47957</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22717; 45907</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26812; 48176</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31684; 58948</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>45574; 76528</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>43543; 73310</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>62819; 94402</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27300</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56785</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42844</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>53362</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20099</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29399</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22212</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24818</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>47399</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>86185</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>65056</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>78180</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18071; 39575</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>43728; 71587</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30432; 56094</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18881; 89340</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12810; 29090</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20063; 40678</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14179; 33364</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18942; 32839</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35252; 62883</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>68909; 104568</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>49735; 81641</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31451; 117356</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>75469</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>114067</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>93931</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>127060</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>56317</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>99395</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>81344</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>101210</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>131787</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>213461</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>175275</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>228270</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60547; 92183</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>94391; 137145</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>75943; 114509</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>103396; 158892</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>43177; 71754</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>80708; 122241</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>64885; 100430</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>53025; 135917</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>110131; 155414</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>186587; 244877</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>152977; 203728</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>157229; 272881</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17346</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>42459</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>60337</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>50663</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>50609</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>137294</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>137535</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>139625</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>67955</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>179753</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>197872</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>190289</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10789; 27862</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>31061; 56073</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>46956; 75181</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>39863; 65788</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38876; 67710</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>117501; 160506</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>116880; 161006</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>102753; 163650</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52814; 85501</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>155571; 207675</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>170598; 225619</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>154434; 214449</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10433</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14232</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7253</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13674</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>110966</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>148587</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>127087</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>124365</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>121399</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>162819</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>134340</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>138039</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5534; 17930</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7949; 23311</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2987; 14013</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7053; 26721</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>92019; 131800</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>127039; 172809</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>105555; 152009</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>108819; 142488</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>101607; 143682</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>139071; 187590</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>113344; 160828</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>119315; 160856</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>166046</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>276508</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>250085</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>330646</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>286526</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>470281</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>415345</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>463423</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>452571</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>746789</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>665430</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>794069</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>142541; 194035</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>243268; 311898</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>219484; 284020</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>256172; 377230</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>257302; 323540</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>429636; 514708</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>375604; 457417</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>379322; 509862</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>414893; 497835</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>692315; 796836</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>619606; 717477</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>686458; 868796</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P12_3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
